--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value331.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value331.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7088419747203418</v>
+        <v>0.8331722617149353</v>
       </c>
       <c r="B1">
-        <v>1.155922072369748</v>
+        <v>1.207363128662109</v>
       </c>
       <c r="C1">
-        <v>3.52329057239545</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>3.519729876180895</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.266783911081604</v>
+        <v>1.343496203422546</v>
       </c>
     </row>
   </sheetData>
